--- a/Planning_Table.xlsx
+++ b/Planning_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy\Desktop\basictechnology\Fabric-1.20.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A793D-40DC-4F84-B81B-D74477986422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC63278-8C08-4830-90C9-6CB6D8C2ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{A3594E87-D8A3-44AF-A5F6-25FD39CA7CFF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,30 @@
       </rPr>
       <t>钢块</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Technology;Building Blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingredients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingredients;Basic Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combat;Basic Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tools&amp;Utilities;Basic Technology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,11 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E58B03-2043-4629-B074-85E91FE86E3F}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -840,9 +864,10 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.0703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -856,10 +881,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -872,9 +900,12 @@
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -887,9 +918,12 @@
       <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -902,9 +936,12 @@
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -918,10 +955,13 @@
         <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -935,10 +975,13 @@
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -952,10 +995,13 @@
         <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -969,10 +1015,13 @@
         <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -986,10 +1035,13 @@
         <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1003,10 +1055,13 @@
         <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1020,10 +1075,13 @@
         <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1037,10 +1095,13 @@
         <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1054,10 +1115,13 @@
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1071,10 +1135,13 @@
         <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1088,10 +1155,13 @@
         <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1105,10 +1175,13 @@
         <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1122,10 +1195,13 @@
         <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1139,10 +1215,13 @@
         <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1156,10 +1235,13 @@
         <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1173,10 +1255,13 @@
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1190,10 +1275,13 @@
         <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1207,10 +1295,13 @@
         <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1224,10 +1315,13 @@
         <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1241,6 +1335,9 @@
         <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1252,20 +1349,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD9F58-4AAC-4E81-99FF-D79DC6811BCE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1278,8 +1376,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.9" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1291,6 +1392,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Planning_Table.xlsx
+++ b/Planning_Table.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy\Desktop\basictechnology\Fabric-1.20.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC63278-8C08-4830-90C9-6CB6D8C2ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B65DA3-502A-40FD-B346-1B74C5782BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{A3594E87-D8A3-44AF-A5F6-25FD39CA7CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Blocks" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Recipes" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +108,6 @@
   </si>
   <si>
     <t>steel_leggings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,12 +468,20 @@
     <t>Tools&amp;Utilities;Basic Technology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Combat;Ingredients;Basic Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combat;Ingredients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +510,13 @@
       <name val="JetBrains Mono Medium"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,11 +540,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,9 +866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E58B03-2043-4629-B074-85E91FE86E3F}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -869,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -881,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -898,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -916,10 +928,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -928,16 +940,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -952,54 +964,48 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -1012,14 +1018,12 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -1032,14 +1036,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -1052,14 +1054,12 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -1069,16 +1069,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1089,19 +1089,19 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1109,16 +1109,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1126,19 +1126,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1146,19 +1146,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1166,19 +1166,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1186,19 +1186,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1206,19 +1206,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1226,19 +1226,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
@@ -1246,100 +1246,90 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1365,7 +1355,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1377,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.9" x14ac:dyDescent="0.35">
@@ -1385,20 +1375,48 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFF08BD-8BEC-4844-A0FB-6CC12C272112}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458EE395-0ACB-4479-898B-64F42054B282}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>